--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>324020</v>
+        <v>300000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PMGD FV Amanecer de Ñuble</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Energías Renovables El Mañío SpA</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9000</v>
+        <v>324020</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcaldesa</t>
+          <t>PMGD FV Amanecer de Ñuble</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Solar Alcaldesa SpA</t>
+          <t>Sociedad Energías Renovables El Mañío SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/11/2019</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Parque Fotovoltaico Alcaldesa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Parque Solar Alcaldesa SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>05/11/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,30 +674,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9903</v>
+        <v>3000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Constructora Huequecura Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1300</v>
+        <v>9903</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Constructora Huequecura Ltda.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Forestal Celco S.A.</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Forestal Celco S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>1610</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1480</v>
+        <v>6500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
+          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>635</v>
+        <v>1480</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MADERERA CONCON LIMITADA</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>480</v>
+        <v>635</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>MADERERA CONCON LIMITADA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>23/06/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rodolfo Augusto Contardo Hederra</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>480</v>
+        <v>22</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Rodolfo Augusto Contardo Hederra</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sigisfredo Redlich Klenner</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
+          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
+          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>Sigisfredo Redlich Klenner</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>07/01/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>712</v>
+        <v>41</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
+          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>270</v>
+        <v>1250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,11 +2363,11 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1380</v>
+        <v>270</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,43 +2392,91 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>09/04/1999</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Reposición y Fusión Internado Mixto C-1 de Quirihue</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>1050</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>01/09/1998</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1297&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Quirihue</t>
         </is>

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -1159,7 +1159,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla Colchagua y Maule S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Parque Eólico Loncualhue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Parque Eólico Loncualhue SpA...</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>305000</v>
+        <v>340000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>11/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158994367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,40 +520,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>324020</v>
+        <v>300000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PMGD FV Amanecer de Ñuble</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad Energías Renovables El Mañío SpA</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9000</v>
+        <v>324020</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/02/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcaldesa</t>
+          <t>PMGD FV Amanecer de Ñuble</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Solar Alcaldesa SpA</t>
+          <t>Sociedad Energías Renovables El Mañío SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/11/2019</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Parque Fotovoltaico Alcaldesa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Parque Solar Alcaldesa SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>05/11/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9903</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Constructora Huequecura Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1300</v>
+        <v>9903</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Constructora Huequecura Ltda.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Forestal Celco S.A.</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Forestal Celco S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>22</v>
+        <v>1610</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1480</v>
+        <v>6500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
+          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>635</v>
+        <v>1480</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MADERERA CONCON LIMITADA</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>480</v>
+        <v>635</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>MADERERA CONCON LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>23/06/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rodolfo Augusto Contardo Hederra</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>480</v>
+        <v>22</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Rodolfo Augusto Contardo Hederra</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>4000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sigisfredo Redlich Klenner</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
+          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
+          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>Sigisfredo Redlich Klenner</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>07/01/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>712</v>
+        <v>41</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
+          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>270</v>
+        <v>1250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,11 +2411,11 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1380</v>
+        <v>270</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,43 +2440,91 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>09/04/1999</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Reposición y Fusión Internado Mixto C-1 de Quirihue</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F45" t="n">
         <v>1050</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>01/09/1998</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1297&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Quirihue</t>
         </is>

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/04/2023</t>
+          <t>04/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158994367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159579302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Parque Eólico Loncualhue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Parque Eólico Loncualhue SpA...</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>305000</v>
+        <v>340000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>19/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158994367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>300000</v>
+        <v>305000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,40 +568,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mataquito Transmisora de Energía S.A.</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>324020</v>
+        <v>300000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/08/2020</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PMGD FV Amanecer de Ñuble</t>
+          <t>Sistema de Transmisión Zonal Grupo 3 S/E Itahue- S/E Hualqui</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad Energías Renovables El Mañío SpA</t>
+          <t>Mataquito Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>324020</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/02/2020</t>
+          <t>26/08/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147970091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcaldesa</t>
+          <t>PMGD FV Amanecer de Ñuble</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Solar Alcaldesa SpA</t>
+          <t>Sociedad Energías Renovables El Mañío SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/11/2019</t>
+          <t>21/02/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145714775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Parque Fotovoltaico Alcaldesa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Parque Solar Alcaldesa SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>05/11/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de Quirihue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9903</v>
+        <v>3000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Constructora Huequecura Ltda.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1300</v>
+        <v>9903</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Aumento de extracción y procesamiento de áridos, Huequecura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Constructora Huequecura Ltda.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128979034&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A..</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1610</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Forestal Celco S.A.</t>
+          <t>Forestal Arauco S.A..</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>14/07/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4042764&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Aumento de la Extracción y Procesamiento de Áridos, Cantera Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Forestal Celco S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>1610</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>14/07/2009</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3897090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1480</v>
+        <v>6500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
+          <t>NUEVA LÍNEA DE SUBTRANSMISIÓN ELÉCTRICA DE 66 KV NINHUE - QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>635</v>
+        <v>1480</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3022362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MADERERA CONCON LIMITADA</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>480</v>
+        <v>635</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>MADERERA CONCON LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>23/06/2008</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910695&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rodolfo Augusto Contardo Hederra</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>480</v>
+        <v>22</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>PLANTA DE IMPREGNACIÓN MADERERA CONCON, SUCURSAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Rodolfo Augusto Contardo Hederra</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1435683&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>4000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sigisfredo Redlich Klenner</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
+          <t>CONSTRUCCION TERMINAL DE LOCOMOCION RURAL INTERCOMUNAL QUIRIHUE (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/01/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=586022&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
+          <t>Terminal de Locomoción Rural Intercomunal (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quirihue</t>
+          <t>Sigisfredo Redlich Klenner</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>07/01/2005</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=544992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Plan Regulador Comunal de Quirihue (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>712</v>
+        <v>41</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=419949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/04/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
+          <t>Uso benéfico de lodos provenientes de Plantas de Tratamiento de Aguas Servidas de Essbío S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/09/2001</t>
+          <t>05/04/2002</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
+          <t>Proyecto Inmobiliario Predio Lote A Comuna de Quirihue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>270</v>
+        <v>1250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/11/2000</t>
+          <t>13/09/2001</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+          <t>Mejoramiento del Sistema de Tratamiento de Fuentes Superficiales de Agua Potable de Quirihue</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,11 +2459,11 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1380</v>
+        <v>270</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/04/1999</t>
+          <t>24/11/2000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3392&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,43 +2488,91 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>Planta de Tratamiento de Aguas Servidas de Quirihue</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ESSBIO S.A.</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1380</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>09/04/1999</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1886&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Reposición y Fusión Internado Mixto C-1 de Quirihue</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Décimosexta</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Ilustre Municipalidad de Quirihue</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F46" t="n">
         <v>1050</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>01/09/1998</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1297&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Quirihue</t>
         </is>

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/Quirihue.xlsx
+++ b/data/Quirihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>24/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
